--- a/REFERENCES/TechBuilder - MPPT CALCULATOR.xlsx
+++ b/REFERENCES/TechBuilder - MPPT CALCULATOR.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HUST\Embedded\MandeviceSLAB\MPPT-Charger-Controller\REFERENCES\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2738DE42-3457-40D1-8D8D-A505B47B05B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1008" yWindow="0" windowWidth="22032" windowHeight="9780"/>
+    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MPPT BUCK DESIGN CALCULATOR" sheetId="1" r:id="rId1"/>
     <sheet name="SWITCHING FREQUENCY GUIDE" sheetId="2" r:id="rId2"/>
     <sheet name="ACS712-30A THEORETICAL RESPONSE" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mhkBJrOY36Tw8dCLbWeiFyzZvtRtg=="/>
     </ext>
@@ -433,7 +445,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -858,7 +870,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="54">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -988,7 +1000,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1717,7 +1729,13 @@
     <xdr:ext cx="4667250" cy="3086100"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1431315937" name="Chart 1"/>
+        <xdr:cNvPr id="1431315937" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E1255055}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1932,11 +1950,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30097,7 +30115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -31348,7 +31366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
